--- a/ParserXLS/mapeamentos-e-notas-finais.xlsx
+++ b/ParserXLS/mapeamentos-e-notas-finais.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,13 +132,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -171,116 +172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,6 +193,114 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -316,181 +317,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,11 +520,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,41 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,152 +622,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,14 +776,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,7 +1107,7 @@
   <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2524,7 +2526,7 @@
       <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2532,7 +2534,7 @@
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="8">
         <v>0</v>
       </c>
     </row>
